--- a/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/1wk/MCDOWELL-N.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64705,6 +64705,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>1281.25</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>1237</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1260.650024414062</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>1260.650024414062</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>5872111</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>1309.75</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>1245.75</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1287.800048828125</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>1287.800048828125</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>3302881</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
